--- a/R Version/fracs.xlsx
+++ b/R Version/fracs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -387,12 +387,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/R Version/fracs.xlsx
+++ b/R Version/fracs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -32,15 +32,27 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
+    <t xml:space="preserve">2030</t>
+  </si>
+  <si>
     <t xml:space="preserve">2040</t>
   </si>
   <si>
+    <t xml:space="preserve">2050</t>
+  </si>
+  <si>
     <t xml:space="preserve">2060</t>
   </si>
   <si>
+    <t xml:space="preserve">2070</t>
+  </si>
+  <si>
     <t xml:space="preserve">2080</t>
   </si>
   <si>
+    <t xml:space="preserve">2090</t>
+  </si>
+  <si>
     <t xml:space="preserve">2100</t>
   </si>
   <si>
@@ -59,7 +71,7 @@
     <t xml:space="preserve">South America</t>
   </si>
   <si>
-    <t xml:space="preserve">North America</t>
+    <t xml:space="preserve">Northern America</t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
@@ -425,229 +437,325 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0898089226095405</v>
+        <v>0.0910443887206334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0982174777938027</v>
+        <v>0.0988935064422922</v>
       </c>
       <c r="D2" t="n">
-        <v>0.118325952103191</v>
+        <v>0.120040655739315</v>
       </c>
       <c r="E2" t="n">
-        <v>0.149393472013969</v>
+        <v>0.151058309660437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.171986238465966</v>
+        <v>0.173534677650046</v>
       </c>
       <c r="G2" t="n">
-        <v>0.225761934377095</v>
+        <v>0.200168273978285</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2861632379068</v>
+        <v>0.227835367442658</v>
       </c>
       <c r="I2" t="n">
-        <v>0.344819530740761</v>
+        <v>0.255949085729697</v>
       </c>
       <c r="J2" t="n">
-        <v>0.393560660109468</v>
+        <v>0.284183076631349</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.311325770376759</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.336488115339209</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.359384247451242</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.379195875864591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.218582435345379</v>
+        <v>0.217650706403112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223649632626286</v>
+        <v>0.222583915422135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220918460630361</v>
+        <v>0.217017698896433</v>
       </c>
       <c r="E3" t="n">
-        <v>0.196757986843463</v>
+        <v>0.192995700977489</v>
       </c>
       <c r="F3" t="n">
-        <v>0.184651820276654</v>
+        <v>0.181729160066066</v>
       </c>
       <c r="G3" t="n">
-        <v>0.157523150436805</v>
+        <v>0.165642697846626</v>
       </c>
       <c r="H3" t="n">
-        <v>0.131314053395868</v>
+        <v>0.149925923297303</v>
       </c>
       <c r="I3" t="n">
-        <v>0.111101921711093</v>
+        <v>0.135191043658953</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0979268874780496</v>
+        <v>0.119691352353821</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.105396721977963</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0934172620601991</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.08282401657156</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0740795573956844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.21657551697706</v>
+        <v>0.219948323572598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.177524806541486</v>
+        <v>0.17765956132002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135315777643592</v>
+        <v>0.135717346496616</v>
       </c>
       <c r="E4" t="n">
-        <v>0.10585477534176</v>
+        <v>0.105399176196112</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0959147337850396</v>
+        <v>0.0951702386075301</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0791197634634265</v>
+        <v>0.0861879281373477</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0678513078902725</v>
+        <v>0.0786339184079789</v>
       </c>
       <c r="I4" t="n">
-        <v>0.060857651836725</v>
+        <v>0.0724041487794411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0578887144931695</v>
+        <v>0.0671696194924544</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0629607420852409</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0599439378636593</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0579493002343277</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0566718658647014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.148368001072915</v>
+        <v>0.142847170981968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.150033574601754</v>
+        <v>0.150863982099238</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163927149447618</v>
+        <v>0.163736525576964</v>
       </c>
       <c r="E5" t="n">
-        <v>0.177420218780456</v>
+        <v>0.177595778253136</v>
       </c>
       <c r="F5" t="n">
-        <v>0.177041695748447</v>
+        <v>0.178088957856357</v>
       </c>
       <c r="G5" t="n">
-        <v>0.173140335289889</v>
+        <v>0.1772722943163</v>
       </c>
       <c r="H5" t="n">
-        <v>0.162638374004589</v>
+        <v>0.175406224928592</v>
       </c>
       <c r="I5" t="n">
-        <v>0.148028661752531</v>
+        <v>0.172047171644541</v>
       </c>
       <c r="J5" t="n">
-        <v>0.133055009261132</v>
+        <v>0.168387997017072</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.16414522848255</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.158897223354772</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.153298083202365</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.14782127424014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0665582950223959</v>
+        <v>0.0673526001954296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0774707694648572</v>
+        <v>0.0775359316467076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.083127627578336</v>
+        <v>0.0832487723296464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0850032112385369</v>
+        <v>0.0845377276841439</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0838972697995369</v>
+        <v>0.0831322584736665</v>
       </c>
       <c r="G6" t="n">
-        <v>0.080700091562841</v>
+        <v>0.0816257058418773</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0756043070576542</v>
+        <v>0.0796479670571873</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0691986706629368</v>
+        <v>0.0771583861935757</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06252582274902</v>
+        <v>0.0745680964894927</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0717169562488595</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0685858139915558</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0654707887792691</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.062554787508605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0680494008215129</v>
+        <v>0.0648533253490458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0624228588078219</v>
+        <v>0.0600385578591284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0525198266879522</v>
+        <v>0.0518907455586351</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0493454257762329</v>
+        <v>0.0494262417017178</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0473225360685256</v>
+        <v>0.0476927583577061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0445900555761607</v>
+        <v>0.0460203606486661</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0432823270640112</v>
+        <v>0.0446832393019178</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0438114163392904</v>
+        <v>0.0434006222873915</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0451375434015218</v>
+        <v>0.0425723563268778</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0423821520276831</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0424848417176333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0427419629722077</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0432903793180448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.192057428151196</v>
+        <v>0.196303484777213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.210680880163992</v>
+        <v>0.212424545210479</v>
       </c>
       <c r="D8" t="n">
-        <v>0.225865205908949</v>
+        <v>0.228348255402391</v>
       </c>
       <c r="E8" t="n">
-        <v>0.236224910005581</v>
+        <v>0.238987065526964</v>
       </c>
       <c r="F8" t="n">
-        <v>0.239185705855831</v>
+        <v>0.240651948988628</v>
       </c>
       <c r="G8" t="n">
-        <v>0.239164669293782</v>
+        <v>0.243082739230898</v>
       </c>
       <c r="H8" t="n">
-        <v>0.233146392680805</v>
+        <v>0.243867359564363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.222182146956662</v>
+        <v>0.243849541706401</v>
       </c>
       <c r="J8" t="n">
-        <v>0.20990536250764</v>
+        <v>0.243427501688932</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.242072428800945</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.240182805672972</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.238331600789028</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.236386259808233</v>
       </c>
     </row>
   </sheetData>

--- a/R Version/fracs.xlsx
+++ b/R Version/fracs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -20,12 +20,21 @@
     <t xml:space="preserve">1950</t>
   </si>
   <si>
+    <t xml:space="preserve">1960</t>
+  </si>
+  <si>
     <t xml:space="preserve">1970</t>
   </si>
   <si>
+    <t xml:space="preserve">1980</t>
+  </si>
+  <si>
     <t xml:space="preserve">1990</t>
   </si>
   <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
     <t xml:space="preserve">2010</t>
   </si>
   <si>
@@ -71,7 +80,7 @@
     <t xml:space="preserve">South America</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern America</t>
+    <t xml:space="preserve">North America</t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
@@ -449,312 +458,384 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>0.0910443887206334</v>
       </c>
       <c r="C2" t="n">
+        <v>0.0941589518381042</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.0988935064422922</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>0.108357771838251</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.120040655739315</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.133186780321106</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.151058309660437</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>0.173534677650046</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0.200168273978285</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>0.227835367442658</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>0.255949085729697</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>0.284183076631349</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>0.311325770376759</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>0.336488115339209</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>0.359384247451242</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>0.379195875864591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>0.217650706403112</v>
       </c>
       <c r="C3" t="n">
+        <v>0.216667808667357</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.222583915422135</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>0.221055527150458</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.217017698896433</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0.205581368979965</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.192995700977489</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>0.181729160066066</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>0.165642697846626</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>0.149925923297303</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>0.135191043658953</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>0.119691352353821</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>0.105396721977963</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>0.0934172620601991</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>0.08282401657156</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>0.0740795573956844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>0.219948323572598</v>
       </c>
       <c r="C4" t="n">
+        <v>0.200590607761533</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.17765956132002</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>0.156038709753313</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.135717346496616</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0.118227421845063</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.105399176196112</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>0.0951702386075301</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>0.0861879281373477</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>0.0786339184079789</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>0.0724041487794411</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>0.0671696194924544</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>0.0629607420852409</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>0.0599439378636593</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>0.0579493002343277</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>0.0566718658647014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>0.142847170981968</v>
       </c>
       <c r="C5" t="n">
+        <v>0.14770457079537</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.150863982099238</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>0.156801794838832</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.163736525576964</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>0.172329010414421</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.177595778253136</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>0.178088957856357</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>0.1772722943163</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>0.175406224928592</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>0.172047171644541</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>0.168387997017072</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>0.16414522848255</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>0.158897223354772</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>0.153298083202365</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>0.14782127424014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>0.0673526001954296</v>
       </c>
       <c r="C6" t="n">
+        <v>0.0727847532507154</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.0775359316467076</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>0.0815328478282271</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0832487723296464</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0.0849765351690463</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.0845377276841439</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>0.0831322584736665</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>0.0816257058418773</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>0.0796479670571873</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>0.0771583861935757</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>0.0745680964894927</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>0.0717169562488595</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>0.0685858139915558</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>0.0654707887792691</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>0.062554787508605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>0.0648533253490458</v>
       </c>
       <c r="C7" t="n">
+        <v>0.0643133473262935</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.0600385578591284</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>0.0557517720307652</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.0518907455586351</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>0.0509368744344999</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.0494262417017178</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>0.0476927583577061</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>0.0460203606486661</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>0.0446832393019178</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>0.0434006222873915</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>0.0425723563268778</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>0.0423821520276831</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>0.0424848417176333</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>0.0427419629722077</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>0.0432903793180448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>0.196303484777213</v>
       </c>
       <c r="C8" t="n">
+        <v>0.203779960360627</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.212424545210479</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>0.220461576560153</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.228348255402391</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0.234762008835899</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.238987065526964</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>0.240651948988628</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>0.243082739230898</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>0.243867359564363</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>0.243849541706401</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>0.243427501688932</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>0.242072428800945</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>0.240182805672972</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>0.238331600789028</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>0.236386259808233</v>
       </c>
     </row>
